--- a/solarvillage_daily.xlsx
+++ b/solarvillage_daily.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\algoritmo clasificación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\algoritmo clasificación\AERCLASS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,7 +51,7 @@
     <t>rmse_fmf</t>
   </si>
   <si>
-    <t>eae440_870</t>
+    <t>eae</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:K1236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
